--- a/grupos/6APV - Estadisticos 2020.xlsx
+++ b/grupos/6APV - Estadisticos 2020.xlsx
@@ -2305,6 +2305,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3481,7 +3482,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3871,6 +3873,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/6APV - Estadisticos 2020.xlsx
+++ b/grupos/6APV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="111">
   <si>
     <t>Materia</t>
   </si>
@@ -143,15 +143,15 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Domínguez Burgos Marioscar</t>
+  </si>
+  <si>
+    <t>Jimenez Nieto Enrique</t>
+  </si>
+  <si>
     <t>Polanco Domínguez Rosa María</t>
   </si>
   <si>
-    <t>Domínguez Burgos Marioscar</t>
-  </si>
-  <si>
-    <t>Jimenez Nieto Enrique</t>
-  </si>
-  <si>
     <t>Acevedo Rendón Ismael Arturo</t>
   </si>
   <si>
@@ -212,6 +212,9 @@
     <t>LIBONATTI</t>
   </si>
   <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
     <t>MANZANET</t>
   </si>
   <si>
@@ -269,6 +272,9 @@
     <t>FIGUEROA</t>
   </si>
   <si>
+    <t>ELIAS</t>
+  </si>
+  <si>
     <t>SARMIENTO</t>
   </si>
   <si>
@@ -323,6 +329,9 @@
     <t>EBERTH JUVIEL</t>
   </si>
   <si>
+    <t>JORGE ANTONIO</t>
+  </si>
+  <si>
     <t>BRANDON</t>
   </si>
   <si>
@@ -342,15 +351,6 @@
   </si>
   <si>
     <t>URI YAEL</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>ELIAS</t>
-  </si>
-  <si>
-    <t>JORGE ANTONIO</t>
   </si>
 </sst>
 </file>
@@ -946,7 +946,7 @@
         <v>7</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -1005,7 +1005,7 @@
         <v>8</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>-1</v>
@@ -1023,7 +1023,7 @@
         <v>-1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1200,7 +1200,7 @@
         <v>-1</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1241,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -1259,7 +1259,7 @@
         <v>-1</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1359,7 +1359,7 @@
         <v>9</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -1536,7 +1536,7 @@
         <v>8</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1831,7 +1831,7 @@
         <v>8</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H21">
         <v>-1</v>
@@ -1890,7 +1890,7 @@
         <v>4</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H22">
         <v>-1</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -2111,30 +2111,30 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>14.29</v>
+        <v>38.1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="I2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>85.70999999999999</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -2143,30 +2143,30 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.1</v>
+        <v>47.62</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.3</v>
+        <v>8.4</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J3">
-        <v>61.9</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <v>11</v>
@@ -2299,7 +2299,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2337,16 +2337,16 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2357,16 +2357,16 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2377,16 +2377,16 @@
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2397,16 +2397,16 @@
         <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2417,36 +2417,36 @@
         <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920112</v>
+        <v>18330051920436</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2457,16 +2457,16 @@
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2477,16 +2477,16 @@
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2497,16 +2497,16 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2517,93 +2517,93 @@
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920113</v>
+        <v>18330051920112</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920113</v>
+        <v>18330051920112</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920115</v>
+        <v>18330051920113</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920118</v>
+        <v>18330051920113</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
         <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
         <v>42</v>
@@ -2611,36 +2611,36 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920117</v>
+        <v>18330051920113</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920117</v>
+        <v>18330051920113</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -2651,39 +2651,39 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920117</v>
+        <v>18330051920113</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920117</v>
+        <v>18330051920113</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
@@ -2691,99 +2691,99 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920117</v>
+        <v>18330051920115</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
         <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920116</v>
+        <v>18330051920115</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920116</v>
+        <v>18330051920115</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920119</v>
+        <v>18330051920115</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920119</v>
+        <v>18330051920115</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
         <v>41</v>
@@ -2791,159 +2791,159 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920119</v>
+        <v>18330051920118</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920120</v>
+        <v>18330051920118</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920121</v>
+        <v>18330051920118</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920122</v>
+        <v>18330051920118</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920122</v>
+        <v>18330051920118</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920122</v>
+        <v>18330051920117</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920442</v>
+        <v>18330051920117</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920442</v>
+        <v>18330051920117</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
         <v>41</v>
@@ -2951,139 +2951,139 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920442</v>
+        <v>18330051920117</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920442</v>
+        <v>18330051920117</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920125</v>
+        <v>18330051920117</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920125</v>
+        <v>18330051920116</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920127</v>
+        <v>18330051920116</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920127</v>
+        <v>18330051920116</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18330051920127</v>
+        <v>18330051920116</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
         <v>41</v>
@@ -3091,59 +3091,59 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920127</v>
+        <v>18330051920116</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920128</v>
+        <v>18330051920116</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920128</v>
+        <v>18330051920119</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
         <v>42</v>
@@ -3151,239 +3151,239 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>18330051920455</v>
+        <v>18330051920119</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>18330051920455</v>
+        <v>18330051920119</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920130</v>
+        <v>18330051920119</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>18330051920130</v>
+        <v>18330051920119</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>18330051920132</v>
+        <v>18330051920120</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>18330051920132</v>
+        <v>18330051920120</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>18330051920132</v>
+        <v>18330051920120</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>18330051920132</v>
+        <v>18330051920120</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>18330051920132</v>
+        <v>18330051920120</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>18330051920133</v>
+        <v>18330051920120</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>18330051920133</v>
+        <v>18330051920121</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>18330051920133</v>
+        <v>18330051920121</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -3391,16 +3391,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>18330051920133</v>
+        <v>18330051920121</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -3411,62 +3411,1382 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>18330051920133</v>
+        <v>18330051920121</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>18330051920135</v>
+        <v>18330051920121</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>18330051920135</v>
+        <v>18330051920121</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>18330051920122</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>18330051920122</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>18330051920122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>18330051920122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>18330051920122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>18330051920122</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>18330051920442</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>18330051920442</v>
+      </c>
+      <c r="B66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>18330051920442</v>
+      </c>
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>18330051920442</v>
+      </c>
+      <c r="B68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>18330051920442</v>
+      </c>
+      <c r="B69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>18330051920442</v>
+      </c>
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>18330051920125</v>
+      </c>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>18330051920125</v>
+      </c>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>18330051920125</v>
+      </c>
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>18330051920125</v>
+      </c>
+      <c r="B74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>18330051920125</v>
+      </c>
+      <c r="B75" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>18330051920125</v>
+      </c>
+      <c r="B76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>17330051920466</v>
+      </c>
+      <c r="B77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>17330051920466</v>
+      </c>
+      <c r="B78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>17330051920466</v>
+      </c>
+      <c r="B79" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>17330051920466</v>
+      </c>
+      <c r="B80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>17330051920466</v>
+      </c>
+      <c r="B81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" t="s">
+        <v>103</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>17330051920466</v>
+      </c>
+      <c r="B82" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>18330051920127</v>
+      </c>
+      <c r="B83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>18330051920127</v>
+      </c>
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>18330051920127</v>
+      </c>
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>18330051920127</v>
+      </c>
+      <c r="B86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" t="s">
+        <v>75</v>
+      </c>
+      <c r="D86" t="s">
+        <v>104</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>18330051920127</v>
+      </c>
+      <c r="B87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" t="s">
+        <v>75</v>
+      </c>
+      <c r="D87" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>18330051920127</v>
+      </c>
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" t="s">
+        <v>75</v>
+      </c>
+      <c r="D88" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>18330051920128</v>
+      </c>
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>18330051920128</v>
+      </c>
+      <c r="B90" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" t="s">
+        <v>105</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>18330051920128</v>
+      </c>
+      <c r="B91" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D91" t="s">
+        <v>105</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>18330051920128</v>
+      </c>
+      <c r="B92" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" t="s">
+        <v>105</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>18330051920128</v>
+      </c>
+      <c r="B93" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" t="s">
+        <v>105</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>18330051920128</v>
+      </c>
+      <c r="B94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" t="s">
+        <v>105</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>18330051920455</v>
+      </c>
+      <c r="B95" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" t="s">
+        <v>106</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>18330051920455</v>
+      </c>
+      <c r="B96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" t="s">
+        <v>106</v>
+      </c>
+      <c r="E96" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>18330051920455</v>
+      </c>
+      <c r="B97" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" t="s">
+        <v>106</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>18330051920455</v>
+      </c>
+      <c r="B98" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" t="s">
+        <v>86</v>
+      </c>
+      <c r="D98" t="s">
+        <v>106</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>18330051920455</v>
+      </c>
+      <c r="B99" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" t="s">
+        <v>86</v>
+      </c>
+      <c r="D99" t="s">
+        <v>106</v>
+      </c>
+      <c r="E99" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>18330051920455</v>
+      </c>
+      <c r="B100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" t="s">
+        <v>86</v>
+      </c>
+      <c r="D100" t="s">
+        <v>106</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>18330051920130</v>
+      </c>
+      <c r="B101" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" t="s">
+        <v>87</v>
+      </c>
+      <c r="D101" t="s">
+        <v>107</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>18330051920130</v>
+      </c>
+      <c r="B102" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102" t="s">
+        <v>87</v>
+      </c>
+      <c r="D102" t="s">
+        <v>107</v>
+      </c>
+      <c r="E102" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>18330051920130</v>
+      </c>
+      <c r="B103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" t="s">
+        <v>87</v>
+      </c>
+      <c r="D103" t="s">
+        <v>107</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>18330051920130</v>
+      </c>
+      <c r="B104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104" t="s">
+        <v>87</v>
+      </c>
+      <c r="D104" t="s">
+        <v>107</v>
+      </c>
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>18330051920130</v>
+      </c>
+      <c r="B105" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" t="s">
+        <v>87</v>
+      </c>
+      <c r="D105" t="s">
+        <v>107</v>
+      </c>
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>18330051920130</v>
+      </c>
+      <c r="B106" t="s">
+        <v>68</v>
+      </c>
+      <c r="C106" t="s">
+        <v>87</v>
+      </c>
+      <c r="D106" t="s">
+        <v>107</v>
+      </c>
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>18330051920132</v>
+      </c>
+      <c r="B107" t="s">
+        <v>69</v>
+      </c>
+      <c r="C107" t="s">
+        <v>88</v>
+      </c>
+      <c r="D107" t="s">
+        <v>108</v>
+      </c>
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>18330051920132</v>
+      </c>
+      <c r="B108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108" t="s">
+        <v>88</v>
+      </c>
+      <c r="D108" t="s">
+        <v>108</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>18330051920132</v>
+      </c>
+      <c r="B109" t="s">
+        <v>69</v>
+      </c>
+      <c r="C109" t="s">
+        <v>88</v>
+      </c>
+      <c r="D109" t="s">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>18330051920132</v>
+      </c>
+      <c r="B110" t="s">
+        <v>69</v>
+      </c>
+      <c r="C110" t="s">
+        <v>88</v>
+      </c>
+      <c r="D110" t="s">
+        <v>108</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>18330051920132</v>
+      </c>
+      <c r="B111" t="s">
+        <v>69</v>
+      </c>
+      <c r="C111" t="s">
+        <v>88</v>
+      </c>
+      <c r="D111" t="s">
+        <v>108</v>
+      </c>
+      <c r="E111" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>18330051920132</v>
+      </c>
+      <c r="B112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" t="s">
+        <v>88</v>
+      </c>
+      <c r="D112" t="s">
+        <v>108</v>
+      </c>
+      <c r="E112" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>18330051920133</v>
+      </c>
+      <c r="B113" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113" t="s">
+        <v>60</v>
+      </c>
+      <c r="D113" t="s">
+        <v>109</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>18330051920133</v>
+      </c>
+      <c r="B114" t="s">
+        <v>70</v>
+      </c>
+      <c r="C114" t="s">
+        <v>60</v>
+      </c>
+      <c r="D114" t="s">
+        <v>109</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>18330051920133</v>
+      </c>
+      <c r="B115" t="s">
+        <v>70</v>
+      </c>
+      <c r="C115" t="s">
+        <v>60</v>
+      </c>
+      <c r="D115" t="s">
+        <v>109</v>
+      </c>
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>18330051920133</v>
+      </c>
+      <c r="B116" t="s">
+        <v>70</v>
+      </c>
+      <c r="C116" t="s">
+        <v>60</v>
+      </c>
+      <c r="D116" t="s">
+        <v>109</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>18330051920133</v>
+      </c>
+      <c r="B117" t="s">
+        <v>70</v>
+      </c>
+      <c r="C117" t="s">
+        <v>60</v>
+      </c>
+      <c r="D117" t="s">
+        <v>109</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>18330051920133</v>
+      </c>
+      <c r="B118" t="s">
+        <v>70</v>
+      </c>
+      <c r="C118" t="s">
+        <v>60</v>
+      </c>
+      <c r="D118" t="s">
+        <v>109</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>18330051920135</v>
+      </c>
+      <c r="B119" t="s">
+        <v>71</v>
+      </c>
+      <c r="C119" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" t="s">
+        <v>110</v>
+      </c>
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>18330051920135</v>
+      </c>
+      <c r="B120" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" t="s">
+        <v>89</v>
+      </c>
+      <c r="D120" t="s">
+        <v>110</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>18330051920135</v>
+      </c>
+      <c r="B121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C121" t="s">
+        <v>89</v>
+      </c>
+      <c r="D121" t="s">
+        <v>110</v>
+      </c>
+      <c r="E121" t="s">
+        <v>4</v>
+      </c>
+      <c r="F121" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>18330051920135</v>
+      </c>
+      <c r="B122" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" t="s">
+        <v>89</v>
+      </c>
+      <c r="D122" t="s">
+        <v>110</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>18330051920135</v>
+      </c>
+      <c r="B123" t="s">
+        <v>71</v>
+      </c>
+      <c r="C123" t="s">
+        <v>89</v>
+      </c>
+      <c r="D123" t="s">
+        <v>110</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>18330051920135</v>
+      </c>
+      <c r="B124" t="s">
+        <v>71</v>
+      </c>
+      <c r="C124" t="s">
+        <v>89</v>
+      </c>
+      <c r="D124" t="s">
+        <v>110</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3511,10 +4831,10 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -3528,10 +4848,10 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -3545,10 +4865,10 @@
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -3556,16 +4876,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920132</v>
+        <v>18330051920133</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -3573,33 +4893,33 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920133</v>
+        <v>18330051920442</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920442</v>
+        <v>18330051920127</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -3607,16 +4927,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920127</v>
+        <v>18330051920132</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -3624,16 +4944,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920119</v>
+        <v>18330051920122</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -3641,33 +4961,33 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920122</v>
+        <v>18330051920116</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920113</v>
+        <v>18330051920119</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -3675,16 +4995,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920116</v>
+        <v>18330051920128</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -3692,16 +5012,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920125</v>
+        <v>18330051920455</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -3709,16 +5029,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920128</v>
+        <v>18330051920135</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -3726,67 +5046,67 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920455</v>
+        <v>18330051920113</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920130</v>
+        <v>18330051920118</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920135</v>
+        <v>18330051920120</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920115</v>
+        <v>18330051920125</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3794,16 +5114,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920118</v>
+        <v>18330051920130</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3811,19 +5131,19 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920120</v>
+        <v>18330051920115</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3834,13 +5154,13 @@
         <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3848,13 +5168,13 @@
         <v>17330051920466</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3867,7 +5187,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3900,420 +5220,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920113</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920113</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920116</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920116</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920125</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>18330051920125</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>18330051920128</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920128</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18330051920455</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330051920455</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>18330051920130</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>18330051920130</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>18330051920135</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>18330051920135</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>18330051920115</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>18330051920118</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>18330051920120</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>18330051920121</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/6APV - Estadisticos 2020.xlsx
+++ b/grupos/6APV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="111">
   <si>
     <t>Materia</t>
   </si>
@@ -143,19 +143,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Jimenez Nieto Enrique</t>
+  </si>
+  <si>
+    <t>Polanco Domínguez Rosa María</t>
+  </si>
+  <si>
     <t>Domínguez Burgos Marioscar</t>
   </si>
   <si>
-    <t>Jimenez Nieto Enrique</t>
-  </si>
-  <si>
-    <t>Polanco Domínguez Rosa María</t>
+    <t>Gaspar Velazco Juan Francisco</t>
   </si>
   <si>
     <t>Acevedo Rendón Ismael Arturo</t>
-  </si>
-  <si>
-    <t>Gaspar Velazco Juan Francisco</t>
   </si>
   <si>
     <t>Sánchez Sánchez Miguel</t>
@@ -813,13 +813,13 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>-1</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>-1</v>
@@ -831,13 +831,13 @@
         <v>-1</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <v>-1</v>
@@ -872,13 +872,13 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>-1</v>
@@ -890,13 +890,13 @@
         <v>-1</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I5">
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -937,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -949,19 +949,19 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K6">
         <v>-1</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M6">
         <v>-1</v>
@@ -1008,19 +1008,19 @@
         <v>7</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <v>-1</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -1067,19 +1067,19 @@
         <v>-1</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K8">
         <v>-1</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M8">
         <v>-1</v>
@@ -1108,13 +1108,13 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>-1</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -1126,13 +1126,13 @@
         <v>-1</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I9">
         <v>-1</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K9">
         <v>-1</v>
@@ -1173,7 +1173,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1185,19 +1185,19 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K10">
         <v>-1</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M10">
         <v>7</v>
@@ -1229,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -1244,19 +1244,19 @@
         <v>7</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="K11">
         <v>-1</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M11">
         <v>6</v>
@@ -1303,19 +1303,19 @@
         <v>-1</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="K12">
         <v>-1</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M12">
         <v>-1</v>
@@ -1362,19 +1362,19 @@
         <v>7</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K13">
         <v>-1</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M13">
         <v>-1</v>
@@ -1409,7 +1409,7 @@
         <v>-1</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>-1</v>
@@ -1421,19 +1421,19 @@
         <v>8</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I14">
         <v>-1</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K14">
         <v>-1</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M14">
         <v>-1</v>
@@ -1462,13 +1462,13 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>-1</v>
@@ -1480,13 +1480,13 @@
         <v>-1</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K15">
         <v>-1</v>
@@ -1521,7 +1521,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -1539,19 +1539,19 @@
         <v>6</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K16">
         <v>-1</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M16">
         <v>-1</v>
@@ -1586,7 +1586,7 @@
         <v>-1</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <v>-1</v>
@@ -1598,13 +1598,13 @@
         <v>-1</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I17">
         <v>-1</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K17">
         <v>-1</v>
@@ -1657,19 +1657,19 @@
         <v>8</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K18">
         <v>-1</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M18">
         <v>-1</v>
@@ -1704,7 +1704,7 @@
         <v>8</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>9</v>
@@ -1716,19 +1716,19 @@
         <v>-1</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K19">
         <v>-1</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M19">
         <v>-1</v>
@@ -1775,19 +1775,19 @@
         <v>-1</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K20">
         <v>-1</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
         <v>-1</v>
@@ -1822,7 +1822,7 @@
         <v>10</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -1834,19 +1834,19 @@
         <v>6</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K21">
         <v>-1</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M21">
         <v>-1</v>
@@ -1875,13 +1875,13 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>-1</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>-1</v>
@@ -1893,13 +1893,13 @@
         <v>6</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I22">
         <v>-1</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K22">
         <v>-1</v>
@@ -1934,13 +1934,13 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>-1</v>
@@ -1952,13 +1952,13 @@
         <v>-1</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K23">
         <v>-1</v>
@@ -1999,7 +1999,7 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <v>7</v>
@@ -2011,19 +2011,19 @@
         <v>-1</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K24">
         <v>-1</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M24">
         <v>-1</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -2111,30 +2111,27 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>38.1</v>
-      </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>7.3</v>
+        <v>47.62</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J2">
-        <v>61.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -2143,30 +2140,30 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>47.62</v>
+        <v>14.29</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="H3">
-        <v>8.4</v>
+        <v>6.3</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J3">
-        <v>52.38</v>
+        <v>85.70999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
@@ -2178,27 +2175,27 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>47.62</v>
       </c>
       <c r="G4">
+        <v>52.38</v>
+      </c>
+      <c r="H4">
+        <v>5.7</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>11</v>
-      </c>
       <c r="J4">
-        <v>52.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -2207,30 +2204,30 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>61.9</v>
+        <v>66.67</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="H5">
-        <v>9.699999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>38.1</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -2239,25 +2236,25 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>66.67</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="G6">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2271,25 +2268,25 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="G7">
+        <v>28.57</v>
+      </c>
+      <c r="H7">
+        <v>7.1</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>66.67</v>
-      </c>
-      <c r="G7">
+      <c r="J7">
         <v>0</v>
-      </c>
-      <c r="H7">
-        <v>7.9</v>
-      </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
-      <c r="J7">
-        <v>33.33</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +2296,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2346,7 +2343,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2366,7 +2363,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2386,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2403,47 +2400,47 @@
         <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920436</v>
+        <v>18330051920112</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920436</v>
+        <v>18330051920112</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
         <v>41</v>
@@ -2463,10 +2460,10 @@
         <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2483,187 +2480,187 @@
         <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920112</v>
+        <v>18330051920113</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920112</v>
+        <v>18330051920113</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920112</v>
+        <v>18330051920115</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920112</v>
+        <v>18330051920118</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920113</v>
+        <v>18330051920117</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920113</v>
+        <v>18330051920117</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920113</v>
+        <v>18330051920117</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920113</v>
+        <v>18330051920117</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920113</v>
+        <v>18330051920116</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
         <v>41</v>
@@ -2671,279 +2668,279 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920113</v>
+        <v>18330051920116</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920115</v>
+        <v>18330051920119</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920115</v>
+        <v>18330051920120</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920115</v>
+        <v>18330051920120</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920115</v>
+        <v>18330051920121</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920115</v>
+        <v>18330051920121</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920118</v>
+        <v>18330051920122</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920118</v>
+        <v>18330051920122</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920118</v>
+        <v>18330051920122</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920118</v>
+        <v>18330051920442</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920118</v>
+        <v>18330051920442</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920117</v>
+        <v>18330051920442</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920117</v>
+        <v>18330051920125</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920117</v>
+        <v>18330051920125</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
         <v>41</v>
@@ -2951,59 +2948,59 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920117</v>
+        <v>17330051920466</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920117</v>
+        <v>17330051920466</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920117</v>
+        <v>18330051920127</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
         <v>44</v>
@@ -3011,79 +3008,79 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920116</v>
+        <v>18330051920127</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920116</v>
+        <v>18330051920127</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920116</v>
+        <v>18330051920127</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18330051920116</v>
+        <v>18330051920128</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
         <v>41</v>
@@ -3091,59 +3088,59 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920116</v>
+        <v>18330051920128</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920116</v>
+        <v>18330051920455</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920119</v>
+        <v>18330051920455</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
         <v>42</v>
@@ -3151,159 +3148,159 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>18330051920119</v>
+        <v>18330051920130</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>18330051920119</v>
+        <v>18330051920130</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920119</v>
+        <v>18330051920132</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>18330051920119</v>
+        <v>18330051920132</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>18330051920120</v>
+        <v>18330051920132</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>18330051920120</v>
+        <v>18330051920132</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>18330051920120</v>
+        <v>18330051920133</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>18330051920120</v>
+        <v>18330051920133</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
         <v>44</v>
@@ -3311,1482 +3308,62 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>18330051920120</v>
+        <v>18330051920133</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>18330051920120</v>
+        <v>18330051920135</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>18330051920121</v>
+        <v>18330051920135</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D53" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>18330051920121</v>
-      </c>
-      <c r="B54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>18330051920121</v>
-      </c>
-      <c r="B55" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>18330051920121</v>
-      </c>
-      <c r="B56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" t="s">
-        <v>99</v>
-      </c>
-      <c r="E56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>18330051920121</v>
-      </c>
-      <c r="B57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>18330051920121</v>
-      </c>
-      <c r="B58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" t="s">
-        <v>99</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>18330051920122</v>
-      </c>
-      <c r="B59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>18330051920122</v>
-      </c>
-      <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" t="s">
-        <v>81</v>
-      </c>
-      <c r="D60" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>18330051920122</v>
-      </c>
-      <c r="B61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" t="s">
-        <v>81</v>
-      </c>
-      <c r="D61" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>18330051920122</v>
-      </c>
-      <c r="B62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>18330051920122</v>
-      </c>
-      <c r="B63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" t="s">
-        <v>100</v>
-      </c>
-      <c r="E63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>18330051920122</v>
-      </c>
-      <c r="B64" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" t="s">
-        <v>100</v>
-      </c>
-      <c r="E64" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>18330051920442</v>
-      </c>
-      <c r="B65" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" t="s">
-        <v>101</v>
-      </c>
-      <c r="E65" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>18330051920442</v>
-      </c>
-      <c r="B66" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>18330051920442</v>
-      </c>
-      <c r="B67" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" t="s">
-        <v>82</v>
-      </c>
-      <c r="D67" t="s">
-        <v>101</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>18330051920442</v>
-      </c>
-      <c r="B68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>18330051920442</v>
-      </c>
-      <c r="B69" t="s">
-        <v>62</v>
-      </c>
-      <c r="C69" t="s">
-        <v>82</v>
-      </c>
-      <c r="D69" t="s">
-        <v>101</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>18330051920442</v>
-      </c>
-      <c r="B70" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E70" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>18330051920125</v>
-      </c>
-      <c r="B71" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" t="s">
-        <v>83</v>
-      </c>
-      <c r="D71" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>18330051920125</v>
-      </c>
-      <c r="B72" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" t="s">
-        <v>102</v>
-      </c>
-      <c r="E72" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>18330051920125</v>
-      </c>
-      <c r="B73" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" t="s">
-        <v>102</v>
-      </c>
-      <c r="E73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>18330051920125</v>
-      </c>
-      <c r="B74" t="s">
-        <v>63</v>
-      </c>
-      <c r="C74" t="s">
-        <v>83</v>
-      </c>
-      <c r="D74" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>18330051920125</v>
-      </c>
-      <c r="B75" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" t="s">
-        <v>102</v>
-      </c>
-      <c r="E75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>18330051920125</v>
-      </c>
-      <c r="B76" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76" t="s">
-        <v>83</v>
-      </c>
-      <c r="D76" t="s">
-        <v>102</v>
-      </c>
-      <c r="E76" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>17330051920466</v>
-      </c>
-      <c r="B77" t="s">
-        <v>64</v>
-      </c>
-      <c r="C77" t="s">
-        <v>84</v>
-      </c>
-      <c r="D77" t="s">
-        <v>103</v>
-      </c>
-      <c r="E77" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>17330051920466</v>
-      </c>
-      <c r="B78" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" t="s">
-        <v>84</v>
-      </c>
-      <c r="D78" t="s">
-        <v>103</v>
-      </c>
-      <c r="E78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>17330051920466</v>
-      </c>
-      <c r="B79" t="s">
-        <v>64</v>
-      </c>
-      <c r="C79" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" t="s">
-        <v>103</v>
-      </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>17330051920466</v>
-      </c>
-      <c r="B80" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" t="s">
-        <v>103</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>17330051920466</v>
-      </c>
-      <c r="B81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" t="s">
-        <v>103</v>
-      </c>
-      <c r="E81" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>17330051920466</v>
-      </c>
-      <c r="B82" t="s">
-        <v>64</v>
-      </c>
-      <c r="C82" t="s">
-        <v>84</v>
-      </c>
-      <c r="D82" t="s">
-        <v>103</v>
-      </c>
-      <c r="E82" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>18330051920127</v>
-      </c>
-      <c r="B83" t="s">
-        <v>65</v>
-      </c>
-      <c r="C83" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" t="s">
-        <v>104</v>
-      </c>
-      <c r="E83" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>18330051920127</v>
-      </c>
-      <c r="B84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84" t="s">
-        <v>75</v>
-      </c>
-      <c r="D84" t="s">
-        <v>104</v>
-      </c>
-      <c r="E84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>18330051920127</v>
-      </c>
-      <c r="B85" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85" t="s">
-        <v>75</v>
-      </c>
-      <c r="D85" t="s">
-        <v>104</v>
-      </c>
-      <c r="E85" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>18330051920127</v>
-      </c>
-      <c r="B86" t="s">
-        <v>65</v>
-      </c>
-      <c r="C86" t="s">
-        <v>75</v>
-      </c>
-      <c r="D86" t="s">
-        <v>104</v>
-      </c>
-      <c r="E86" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>18330051920127</v>
-      </c>
-      <c r="B87" t="s">
-        <v>65</v>
-      </c>
-      <c r="C87" t="s">
-        <v>75</v>
-      </c>
-      <c r="D87" t="s">
-        <v>104</v>
-      </c>
-      <c r="E87" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>18330051920127</v>
-      </c>
-      <c r="B88" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88" t="s">
-        <v>75</v>
-      </c>
-      <c r="D88" t="s">
-        <v>104</v>
-      </c>
-      <c r="E88" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>18330051920128</v>
-      </c>
-      <c r="B89" t="s">
-        <v>66</v>
-      </c>
-      <c r="C89" t="s">
-        <v>85</v>
-      </c>
-      <c r="D89" t="s">
-        <v>105</v>
-      </c>
-      <c r="E89" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>18330051920128</v>
-      </c>
-      <c r="B90" t="s">
-        <v>66</v>
-      </c>
-      <c r="C90" t="s">
-        <v>85</v>
-      </c>
-      <c r="D90" t="s">
-        <v>105</v>
-      </c>
-      <c r="E90" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>18330051920128</v>
-      </c>
-      <c r="B91" t="s">
-        <v>66</v>
-      </c>
-      <c r="C91" t="s">
-        <v>85</v>
-      </c>
-      <c r="D91" t="s">
-        <v>105</v>
-      </c>
-      <c r="E91" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>18330051920128</v>
-      </c>
-      <c r="B92" t="s">
-        <v>66</v>
-      </c>
-      <c r="C92" t="s">
-        <v>85</v>
-      </c>
-      <c r="D92" t="s">
-        <v>105</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>18330051920128</v>
-      </c>
-      <c r="B93" t="s">
-        <v>66</v>
-      </c>
-      <c r="C93" t="s">
-        <v>85</v>
-      </c>
-      <c r="D93" t="s">
-        <v>105</v>
-      </c>
-      <c r="E93" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>18330051920128</v>
-      </c>
-      <c r="B94" t="s">
-        <v>66</v>
-      </c>
-      <c r="C94" t="s">
-        <v>85</v>
-      </c>
-      <c r="D94" t="s">
-        <v>105</v>
-      </c>
-      <c r="E94" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>18330051920455</v>
-      </c>
-      <c r="B95" t="s">
-        <v>67</v>
-      </c>
-      <c r="C95" t="s">
-        <v>86</v>
-      </c>
-      <c r="D95" t="s">
-        <v>106</v>
-      </c>
-      <c r="E95" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>18330051920455</v>
-      </c>
-      <c r="B96" t="s">
-        <v>67</v>
-      </c>
-      <c r="C96" t="s">
-        <v>86</v>
-      </c>
-      <c r="D96" t="s">
-        <v>106</v>
-      </c>
-      <c r="E96" t="s">
-        <v>4</v>
-      </c>
-      <c r="F96" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>18330051920455</v>
-      </c>
-      <c r="B97" t="s">
-        <v>67</v>
-      </c>
-      <c r="C97" t="s">
-        <v>86</v>
-      </c>
-      <c r="D97" t="s">
-        <v>106</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>18330051920455</v>
-      </c>
-      <c r="B98" t="s">
-        <v>67</v>
-      </c>
-      <c r="C98" t="s">
-        <v>86</v>
-      </c>
-      <c r="D98" t="s">
-        <v>106</v>
-      </c>
-      <c r="E98" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>18330051920455</v>
-      </c>
-      <c r="B99" t="s">
-        <v>67</v>
-      </c>
-      <c r="C99" t="s">
-        <v>86</v>
-      </c>
-      <c r="D99" t="s">
-        <v>106</v>
-      </c>
-      <c r="E99" t="s">
-        <v>5</v>
-      </c>
-      <c r="F99" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>18330051920455</v>
-      </c>
-      <c r="B100" t="s">
-        <v>67</v>
-      </c>
-      <c r="C100" t="s">
-        <v>86</v>
-      </c>
-      <c r="D100" t="s">
-        <v>106</v>
-      </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>18330051920130</v>
-      </c>
-      <c r="B101" t="s">
-        <v>68</v>
-      </c>
-      <c r="C101" t="s">
-        <v>87</v>
-      </c>
-      <c r="D101" t="s">
-        <v>107</v>
-      </c>
-      <c r="E101" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>18330051920130</v>
-      </c>
-      <c r="B102" t="s">
-        <v>68</v>
-      </c>
-      <c r="C102" t="s">
-        <v>87</v>
-      </c>
-      <c r="D102" t="s">
-        <v>107</v>
-      </c>
-      <c r="E102" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>18330051920130</v>
-      </c>
-      <c r="B103" t="s">
-        <v>68</v>
-      </c>
-      <c r="C103" t="s">
-        <v>87</v>
-      </c>
-      <c r="D103" t="s">
-        <v>107</v>
-      </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>18330051920130</v>
-      </c>
-      <c r="B104" t="s">
-        <v>68</v>
-      </c>
-      <c r="C104" t="s">
-        <v>87</v>
-      </c>
-      <c r="D104" t="s">
-        <v>107</v>
-      </c>
-      <c r="E104" t="s">
-        <v>6</v>
-      </c>
-      <c r="F104" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>18330051920130</v>
-      </c>
-      <c r="B105" t="s">
-        <v>68</v>
-      </c>
-      <c r="C105" t="s">
-        <v>87</v>
-      </c>
-      <c r="D105" t="s">
-        <v>107</v>
-      </c>
-      <c r="E105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>18330051920130</v>
-      </c>
-      <c r="B106" t="s">
-        <v>68</v>
-      </c>
-      <c r="C106" t="s">
-        <v>87</v>
-      </c>
-      <c r="D106" t="s">
-        <v>107</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>18330051920132</v>
-      </c>
-      <c r="B107" t="s">
-        <v>69</v>
-      </c>
-      <c r="C107" t="s">
-        <v>88</v>
-      </c>
-      <c r="D107" t="s">
-        <v>108</v>
-      </c>
-      <c r="E107" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>18330051920132</v>
-      </c>
-      <c r="B108" t="s">
-        <v>69</v>
-      </c>
-      <c r="C108" t="s">
-        <v>88</v>
-      </c>
-      <c r="D108" t="s">
-        <v>108</v>
-      </c>
-      <c r="E108" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>18330051920132</v>
-      </c>
-      <c r="B109" t="s">
-        <v>69</v>
-      </c>
-      <c r="C109" t="s">
-        <v>88</v>
-      </c>
-      <c r="D109" t="s">
-        <v>108</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>18330051920132</v>
-      </c>
-      <c r="B110" t="s">
-        <v>69</v>
-      </c>
-      <c r="C110" t="s">
-        <v>88</v>
-      </c>
-      <c r="D110" t="s">
-        <v>108</v>
-      </c>
-      <c r="E110" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>18330051920132</v>
-      </c>
-      <c r="B111" t="s">
-        <v>69</v>
-      </c>
-      <c r="C111" t="s">
-        <v>88</v>
-      </c>
-      <c r="D111" t="s">
-        <v>108</v>
-      </c>
-      <c r="E111" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>18330051920132</v>
-      </c>
-      <c r="B112" t="s">
-        <v>69</v>
-      </c>
-      <c r="C112" t="s">
-        <v>88</v>
-      </c>
-      <c r="D112" t="s">
-        <v>108</v>
-      </c>
-      <c r="E112" t="s">
-        <v>4</v>
-      </c>
-      <c r="F112" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>18330051920133</v>
-      </c>
-      <c r="B113" t="s">
-        <v>70</v>
-      </c>
-      <c r="C113" t="s">
-        <v>60</v>
-      </c>
-      <c r="D113" t="s">
-        <v>109</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>18330051920133</v>
-      </c>
-      <c r="B114" t="s">
-        <v>70</v>
-      </c>
-      <c r="C114" t="s">
-        <v>60</v>
-      </c>
-      <c r="D114" t="s">
-        <v>109</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>18330051920133</v>
-      </c>
-      <c r="B115" t="s">
-        <v>70</v>
-      </c>
-      <c r="C115" t="s">
-        <v>60</v>
-      </c>
-      <c r="D115" t="s">
-        <v>109</v>
-      </c>
-      <c r="E115" t="s">
-        <v>5</v>
-      </c>
-      <c r="F115" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>18330051920133</v>
-      </c>
-      <c r="B116" t="s">
-        <v>70</v>
-      </c>
-      <c r="C116" t="s">
-        <v>60</v>
-      </c>
-      <c r="D116" t="s">
-        <v>109</v>
-      </c>
-      <c r="E116" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>18330051920133</v>
-      </c>
-      <c r="B117" t="s">
-        <v>70</v>
-      </c>
-      <c r="C117" t="s">
-        <v>60</v>
-      </c>
-      <c r="D117" t="s">
-        <v>109</v>
-      </c>
-      <c r="E117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>18330051920133</v>
-      </c>
-      <c r="B118" t="s">
-        <v>70</v>
-      </c>
-      <c r="C118" t="s">
-        <v>60</v>
-      </c>
-      <c r="D118" t="s">
-        <v>109</v>
-      </c>
-      <c r="E118" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>18330051920135</v>
-      </c>
-      <c r="B119" t="s">
-        <v>71</v>
-      </c>
-      <c r="C119" t="s">
-        <v>89</v>
-      </c>
-      <c r="D119" t="s">
-        <v>110</v>
-      </c>
-      <c r="E119" t="s">
-        <v>5</v>
-      </c>
-      <c r="F119" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>18330051920135</v>
-      </c>
-      <c r="B120" t="s">
-        <v>71</v>
-      </c>
-      <c r="C120" t="s">
-        <v>89</v>
-      </c>
-      <c r="D120" t="s">
-        <v>110</v>
-      </c>
-      <c r="E120" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>18330051920135</v>
-      </c>
-      <c r="B121" t="s">
-        <v>71</v>
-      </c>
-      <c r="C121" t="s">
-        <v>89</v>
-      </c>
-      <c r="D121" t="s">
-        <v>110</v>
-      </c>
-      <c r="E121" t="s">
-        <v>4</v>
-      </c>
-      <c r="F121" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>18330051920135</v>
-      </c>
-      <c r="B122" t="s">
-        <v>71</v>
-      </c>
-      <c r="C122" t="s">
-        <v>89</v>
-      </c>
-      <c r="D122" t="s">
-        <v>110</v>
-      </c>
-      <c r="E122" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>18330051920135</v>
-      </c>
-      <c r="B123" t="s">
-        <v>71</v>
-      </c>
-      <c r="C123" t="s">
-        <v>89</v>
-      </c>
-      <c r="D123" t="s">
-        <v>110</v>
-      </c>
-      <c r="E123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>18330051920135</v>
-      </c>
-      <c r="B124" t="s">
-        <v>71</v>
-      </c>
-      <c r="C124" t="s">
-        <v>89</v>
-      </c>
-      <c r="D124" t="s">
-        <v>110</v>
-      </c>
-      <c r="E124" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4837,7 +3414,7 @@
         <v>90</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4854,7 +3431,7 @@
         <v>91</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4871,38 +3448,38 @@
         <v>95</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920133</v>
+        <v>18330051920127</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920442</v>
+        <v>18330051920132</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -4910,50 +3487,50 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920127</v>
+        <v>18330051920122</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920132</v>
+        <v>18330051920442</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920122</v>
+        <v>18330051920133</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -4961,16 +3538,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920116</v>
+        <v>18330051920113</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -4978,16 +3555,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920119</v>
+        <v>18330051920116</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -4995,16 +3572,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920128</v>
+        <v>18330051920120</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -5012,16 +3589,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920455</v>
+        <v>18330051920121</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -5029,16 +3606,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920135</v>
+        <v>18330051920125</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -5046,87 +3623,87 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920113</v>
+        <v>17330051920466</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920118</v>
+        <v>18330051920128</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920120</v>
+        <v>18330051920455</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920125</v>
+        <v>18330051920130</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920130</v>
+        <v>18330051920135</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5143,41 +3720,41 @@
         <v>93</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920121</v>
+        <v>18330051920118</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>17330051920466</v>
+        <v>18330051920119</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5187,7 +3764,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5217,7 +3794,352 @@
         <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>18330051920116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>18330051920121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>18330051920125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>18330051920125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>17330051920466</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>17330051920466</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>18330051920455</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>18330051920455</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>18330051920115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>18330051920118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>18330051920119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/6APV - Estadisticos 2020.xlsx
+++ b/grupos/6APV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="111">
   <si>
     <t>Materia</t>
   </si>
@@ -143,24 +143,24 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Polanco Domínguez Rosa María</t>
+  </si>
+  <si>
+    <t>Domínguez Burgos Marioscar</t>
+  </si>
+  <si>
+    <t>Gaspar Velazco Juan Francisco</t>
+  </si>
+  <si>
+    <t>Acevedo Rendón Ismael Arturo</t>
+  </si>
+  <si>
+    <t>Sánchez Sánchez Miguel</t>
+  </si>
+  <si>
     <t>Jimenez Nieto Enrique</t>
   </si>
   <si>
-    <t>Polanco Domínguez Rosa María</t>
-  </si>
-  <si>
-    <t>Domínguez Burgos Marioscar</t>
-  </si>
-  <si>
-    <t>Gaspar Velazco Juan Francisco</t>
-  </si>
-  <si>
-    <t>Acevedo Rendón Ismael Arturo</t>
-  </si>
-  <si>
-    <t>Sánchez Sánchez Miguel</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -182,175 +182,175 @@
     <t>CASIANO</t>
   </si>
   <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>ESPIRITU</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LIBONATTI</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>MANZANET</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>TERRAZAS</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>COXCAHUA</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>BUSTAMANTE</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>FIGUEROA</t>
+  </si>
+  <si>
+    <t>ELIAS</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>MONTERROSAS</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>SERGIO JOSUE</t>
+  </si>
+  <si>
+    <t>CRISTIAN FELIPE</t>
+  </si>
+  <si>
+    <t>DIANA MIRELLY</t>
+  </si>
+  <si>
+    <t>FRANCISCO MIGUEL</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
+    <t>ANGEL RODRIGO</t>
+  </si>
+  <si>
+    <t>OSWALDO IVAN</t>
+  </si>
+  <si>
+    <t>DIEGO BERSAIN</t>
+  </si>
+  <si>
+    <t>EBERTH JUVIEL</t>
+  </si>
+  <si>
+    <t>JORGE ANTONIO</t>
+  </si>
+  <si>
+    <t>BRANDON</t>
+  </si>
+  <si>
+    <t>YULENNY</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>PAUL ENRIQUE</t>
+  </si>
+  <si>
+    <t>JUAN DAVID</t>
+  </si>
+  <si>
+    <t>URI YAEL</t>
+  </si>
+  <si>
     <t>DOMINGUEZ</t>
   </si>
   <si>
     <t>ESTRELLA</t>
   </si>
   <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
-    <t>ESPIRITU</t>
-  </si>
-  <si>
     <t>GARATE</t>
   </si>
   <si>
-    <t>GIL</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LIBONATTI</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>MANZANET</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>TERRAZAS</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>COXCAHUA</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
     <t>MARCELINO</t>
   </si>
   <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>BUSTAMANTE</t>
-  </si>
-  <si>
     <t>ROJAS</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
-    <t>FIGUEROA</t>
-  </si>
-  <si>
-    <t>ELIAS</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>MONTERROSAS</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>SERGIO JOSUE</t>
-  </si>
-  <si>
-    <t>CRISTIAN FELIPE</t>
-  </si>
-  <si>
-    <t>DIANA MIRELLY</t>
-  </si>
-  <si>
     <t>YAEL</t>
   </si>
   <si>
     <t>ARIDETH</t>
   </si>
   <si>
-    <t>FRANCISCO MIGUEL</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
     <t>DEMIAN JESUS</t>
-  </si>
-  <si>
-    <t>ARELY</t>
-  </si>
-  <si>
-    <t>ANGEL RODRIGO</t>
-  </si>
-  <si>
-    <t>OSWALDO IVAN</t>
-  </si>
-  <si>
-    <t>DIEGO BERSAIN</t>
-  </si>
-  <si>
-    <t>EBERTH JUVIEL</t>
-  </si>
-  <si>
-    <t>JORGE ANTONIO</t>
-  </si>
-  <si>
-    <t>BRANDON</t>
-  </si>
-  <si>
-    <t>YULENNY</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>PAUL ENRIQUE</t>
-  </si>
-  <si>
-    <t>JUAN DAVID</t>
-  </si>
-  <si>
-    <t>URI YAEL</t>
   </si>
 </sst>
 </file>
@@ -822,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -840,7 +840,7 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L4">
         <v>-1</v>
@@ -881,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>-1</v>
@@ -958,7 +958,7 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>6</v>
@@ -1017,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L7">
         <v>8</v>
@@ -1058,7 +1058,7 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L8">
         <v>6</v>
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -1135,7 +1135,7 @@
         <v>5</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>-1</v>
@@ -1194,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -1235,7 +1235,7 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -1253,7 +1253,7 @@
         <v>4</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L11">
         <v>7</v>
@@ -1312,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L12">
         <v>6</v>
@@ -1371,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L13">
         <v>6</v>
@@ -1412,7 +1412,7 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>9</v>
@@ -1430,7 +1430,7 @@
         <v>8</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L14">
         <v>8</v>
@@ -1471,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -1489,7 +1489,7 @@
         <v>5</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L15">
         <v>-1</v>
@@ -1548,7 +1548,7 @@
         <v>6</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L16">
         <v>6</v>
@@ -1589,7 +1589,7 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L17">
         <v>-1</v>
@@ -1666,7 +1666,7 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L18">
         <v>6</v>
@@ -1725,7 +1725,7 @@
         <v>6</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L19">
         <v>6</v>
@@ -1766,7 +1766,7 @@
         <v>7</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -1784,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L20">
         <v>6</v>
@@ -1843,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L21">
         <v>6</v>
@@ -1884,7 +1884,7 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>4</v>
@@ -1902,7 +1902,7 @@
         <v>5</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L22">
         <v>-1</v>
@@ -1943,7 +1943,7 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -1961,7 +1961,7 @@
         <v>6</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L23">
         <v>-1</v>
@@ -2020,7 +2020,7 @@
         <v>5</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L24">
         <v>6</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -2111,27 +2111,30 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>14.29</v>
       </c>
       <c r="G2">
-        <v>47.62</v>
+        <v>33.33</v>
+      </c>
+      <c r="H2">
+        <v>6.3</v>
       </c>
       <c r="I2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>85.70999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -2140,30 +2143,30 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>14.29</v>
+        <v>47.62</v>
       </c>
       <c r="G3">
-        <v>33.33</v>
+        <v>52.38</v>
       </c>
       <c r="H3">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="I3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>85.70999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
@@ -2172,30 +2175,30 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>47.62</v>
+        <v>66.67</v>
       </c>
       <c r="G4">
-        <v>52.38</v>
+        <v>33.33</v>
       </c>
       <c r="H4">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -2204,30 +2207,30 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>66.67</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="G5">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>33.33</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -2239,27 +2242,27 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>71.43000000000001</v>
       </c>
       <c r="G6">
+        <v>28.57</v>
+      </c>
+      <c r="H6">
+        <v>7.1</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
       <c r="J6">
-        <v>28.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -2268,19 +2271,19 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>71.43000000000001</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>28.57</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2296,7 +2299,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2334,16 +2337,16 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2354,16 +2357,16 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2374,36 +2377,36 @@
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920436</v>
+        <v>18330051920112</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2414,16 +2417,16 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2434,73 +2437,73 @@
         <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920112</v>
+        <v>18330051920113</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920112</v>
+        <v>18330051920117</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920113</v>
+        <v>18330051920117</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>41</v>
@@ -2508,39 +2511,39 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920113</v>
+        <v>18330051920117</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920115</v>
+        <v>18330051920116</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>41</v>
@@ -2548,19 +2551,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920118</v>
+        <v>18330051920120</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
         <v>41</v>
@@ -2568,19 +2571,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920117</v>
+        <v>18330051920121</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
         <v>41</v>
@@ -2588,79 +2591,79 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920117</v>
+        <v>18330051920122</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920117</v>
+        <v>18330051920122</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920117</v>
+        <v>18330051920442</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
         <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920116</v>
+        <v>18330051920442</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>41</v>
@@ -2668,39 +2671,39 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920116</v>
+        <v>18330051920125</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
         <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920119</v>
+        <v>17330051920466</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
         <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>41</v>
@@ -2708,19 +2711,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920120</v>
+        <v>18330051920127</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
         <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
         <v>41</v>
@@ -2728,99 +2731,99 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920120</v>
+        <v>18330051920127</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
         <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920121</v>
+        <v>18330051920127</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920121</v>
+        <v>18330051920128</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
         <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920122</v>
+        <v>18330051920455</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
         <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920122</v>
+        <v>18330051920130</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
         <v>41</v>
@@ -2828,13 +2831,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920122</v>
+        <v>18330051920132</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
         <v>100</v>
@@ -2843,64 +2846,64 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920442</v>
+        <v>18330051920132</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920442</v>
+        <v>18330051920132</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920442</v>
+        <v>18330051920133</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
         <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
         <v>41</v>
@@ -2908,461 +2911,41 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920125</v>
+        <v>18330051920133</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920125</v>
+        <v>18330051920135</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
         <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>17330051920466</v>
-      </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>17330051920466</v>
-      </c>
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>18330051920127</v>
-      </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>18330051920127</v>
-      </c>
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>18330051920127</v>
-      </c>
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>18330051920127</v>
-      </c>
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>18330051920128</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>18330051920128</v>
-      </c>
-      <c r="B40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>18330051920455</v>
-      </c>
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>18330051920455</v>
-      </c>
-      <c r="B42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>18330051920130</v>
-      </c>
-      <c r="B43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>18330051920130</v>
-      </c>
-      <c r="B44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>18330051920132</v>
-      </c>
-      <c r="B45" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>18330051920132</v>
-      </c>
-      <c r="B46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>18330051920132</v>
-      </c>
-      <c r="B47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>18330051920132</v>
-      </c>
-      <c r="B48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>18330051920133</v>
-      </c>
-      <c r="B49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>18330051920133</v>
-      </c>
-      <c r="B50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>18330051920133</v>
-      </c>
-      <c r="B51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>18330051920135</v>
-      </c>
-      <c r="B52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>18330051920135</v>
-      </c>
-      <c r="B53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3408,13 +2991,13 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3425,13 +3008,13 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3439,16 +3022,16 @@
         <v>18330051920117</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3456,16 +3039,16 @@
         <v>18330051920127</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3473,16 +3056,16 @@
         <v>18330051920132</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3490,16 +3073,16 @@
         <v>18330051920122</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3507,16 +3090,16 @@
         <v>18330051920442</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3524,16 +3107,16 @@
         <v>18330051920133</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3544,13 +3127,13 @@
         <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3558,16 +3141,16 @@
         <v>18330051920116</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3575,16 +3158,16 @@
         <v>18330051920120</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3592,16 +3175,16 @@
         <v>18330051920121</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3609,16 +3192,16 @@
         <v>18330051920125</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3626,16 +3209,16 @@
         <v>17330051920466</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3643,16 +3226,16 @@
         <v>18330051920128</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3660,16 +3243,16 @@
         <v>18330051920455</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3677,16 +3260,16 @@
         <v>18330051920130</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3694,16 +3277,16 @@
         <v>18330051920135</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3711,16 +3294,16 @@
         <v>18330051920115</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3728,16 +3311,16 @@
         <v>18330051920118</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3745,16 +3328,16 @@
         <v>18330051920119</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3764,7 +3347,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3799,45 +3382,45 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920116</v>
+        <v>18330051920113</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920116</v>
+        <v>18330051920113</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -3845,22 +3428,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920120</v>
+        <v>18330051920122</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -3868,22 +3451,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920120</v>
+        <v>18330051920122</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -3891,45 +3474,45 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920121</v>
+        <v>18330051920128</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920121</v>
+        <v>18330051920128</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -3937,45 +3520,45 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920125</v>
+        <v>18330051920130</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920125</v>
+        <v>18330051920130</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -3983,45 +3566,45 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>17330051920466</v>
+        <v>18330051920135</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>17330051920466</v>
+        <v>18330051920135</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -4029,19 +3612,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>18330051920455</v>
+        <v>18330051920116</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>41</v>
@@ -4052,22 +3635,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>18330051920455</v>
+        <v>18330051920120</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -4075,19 +3658,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>18330051920115</v>
+        <v>18330051920121</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
         <v>41</v>
@@ -4098,19 +3681,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>18330051920118</v>
+        <v>18330051920125</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
         <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
         <v>41</v>
@@ -4121,24 +3704,47 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>18330051920119</v>
+        <v>17330051920466</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>41</v>
       </c>
       <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>18330051920455</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/6APV - Estadisticos 2020.xlsx
+++ b/grupos/6APV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="111">
   <si>
     <t>Materia</t>
   </si>
@@ -152,13 +152,13 @@
     <t>Gaspar Velazco Juan Francisco</t>
   </si>
   <si>
+    <t>Sánchez Sánchez Miguel</t>
+  </si>
+  <si>
     <t>Acevedo Rendón Ismael Arturo</t>
   </si>
   <si>
-    <t>Sánchez Sánchez Miguel</t>
-  </si>
-  <si>
-    <t>Jimenez Nieto Enrique</t>
+    <t>Jiménez Nieto Enrique</t>
   </si>
   <si>
     <t>NC</t>
@@ -1406,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -1424,7 +1424,7 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J14">
         <v>8</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -2210,27 +2210,27 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>71.43000000000001</v>
       </c>
       <c r="G5">
+        <v>28.57</v>
+      </c>
+      <c r="H5">
+        <v>7.1</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
       <c r="J5">
-        <v>28.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
@@ -2239,25 +2239,25 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>71.43000000000001</v>
+        <v>76.19</v>
       </c>
       <c r="G6">
-        <v>28.57</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2299,7 +2299,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2366,7 +2366,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2611,22 +2611,22 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920122</v>
+        <v>18330051920442</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2643,24 +2643,24 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920442</v>
+        <v>18330051920125</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -2671,16 +2671,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920125</v>
+        <v>17330051920466</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -2691,16 +2691,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>17330051920466</v>
+        <v>18330051920127</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -2723,10 +2723,10 @@
         <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2743,44 +2743,44 @@
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920127</v>
+        <v>18330051920128</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920128</v>
+        <v>18330051920455</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -2791,16 +2791,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920455</v>
+        <v>18330051920130</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -2811,22 +2811,22 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920130</v>
+        <v>18330051920132</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2843,10 +2843,10 @@
         <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2863,24 +2863,24 @@
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920132</v>
+        <v>18330051920133</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -2903,49 +2903,29 @@
         <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920133</v>
+        <v>18330051920135</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>18330051920135</v>
-      </c>
-      <c r="B32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3070,16 +3050,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920122</v>
+        <v>18330051920442</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -3087,16 +3067,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920442</v>
+        <v>18330051920133</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -3104,33 +3084,33 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920133</v>
+        <v>18330051920113</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920113</v>
+        <v>18330051920116</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3138,16 +3118,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920116</v>
+        <v>18330051920120</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3155,16 +3135,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920120</v>
+        <v>18330051920121</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3172,16 +3152,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920121</v>
+        <v>18330051920122</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3347,7 +3327,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3428,39 +3408,39 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920122</v>
+        <v>18330051920128</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920122</v>
+        <v>18330051920128</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -3474,16 +3454,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920128</v>
+        <v>18330051920130</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -3492,21 +3472,21 @@
         <v>42</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920128</v>
+        <v>18330051920130</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -3520,16 +3500,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920130</v>
+        <v>18330051920135</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -3543,16 +3523,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920130</v>
+        <v>18330051920135</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -3566,39 +3546,39 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920135</v>
+        <v>18330051920116</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>18330051920135</v>
+        <v>18330051920120</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -3612,16 +3592,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>18330051920116</v>
+        <v>18330051920121</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -3635,16 +3615,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>18330051920120</v>
+        <v>18330051920122</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -3658,16 +3638,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>18330051920121</v>
+        <v>18330051920125</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -3681,16 +3661,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>18330051920125</v>
+        <v>17330051920466</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -3704,16 +3684,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>17330051920466</v>
+        <v>18330051920455</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -3722,29 +3702,6 @@
         <v>41</v>
       </c>
       <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>18330051920455</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17">
         <v>-1</v>
       </c>
     </row>
